--- a/biology/Zoologie/Carbinea_robertsi/Carbinea_robertsi.xlsx
+++ b/biology/Zoologie/Carbinea_robertsi/Carbinea_robertsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbinea robertsi est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbinea robertsi est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre sur le mont Lewis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre sur le mont Lewis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,9 mm de long sur 1,4 mm de large, son abdomen 2,1 mm de long. La carapace du mâle paratype mesure 1,7 mm de long sur 1,3 mm de large, son abdomen 1,8 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,9 mm de long sur 1,4 mm de large, son abdomen 2,1 mm de long. La carapace du mâle paratype mesure 1,7 mm de long sur 1,3 mm de large, son abdomen 1,8 mm de long.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lewis Roberts[2], naturaliste au Muséum du Queensland.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Lewis Roberts, naturaliste au Muséum du Queensland.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1999 : Carbinea, a new spider genus from north Queensland, Australia (Araneae, Amaurobioidea, Kababininae). Journal of Arachnology, vol. 27, p. 25-36 (texte intégral).</t>
         </is>
